--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16302.37967839257</v>
+        <v>3244173.556000121</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16302.37967839257</v>
+        <v>3244173.556000121</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50280.23493180065</v>
+        <v>3093579.445293957</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50280.23493180065</v>
+        <v>3093579.445293957</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343233871.393862</v>
+        <v>52951000.83169559</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13644.86404519283</v>
+        <v>1335562.295606176</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25534.50198545793</v>
+        <v>2372786.529349064</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37422.25798620788</v>
+        <v>3410010.763091953</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49995.54254324949</v>
+        <v>4445758.710428786</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62568.82710029106</v>
+        <v>5481506.657765619</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75142.11165733261</v>
+        <v>6517254.605102447</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87715.39621437418</v>
+        <v>7553002.552439274</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100288.6807714158</v>
+        <v>8588750.499776101</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112930.2748063889</v>
+        <v>9607109.469558528</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>125591.6668211599</v>
+        <v>10629408.23732075</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>138253.0588359309</v>
+        <v>11651707.00508298</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>150914.4508507019</v>
+        <v>12674005.7728452</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>163575.2378462369</v>
+        <v>13696371.57687144</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>176236.6298610079</v>
+        <v>14718670.34463367</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>188898.0218757789</v>
+        <v>15740969.11239591</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>207</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1111</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
